--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/NOSCCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/NOSCCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>NOSCCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2491.928190246727</v>
       </c>
       <c r="C2" t="n">
-        <v>507.3328670075571</v>
+        <v>2047.2659911189166</v>
       </c>
       <c r="D2" t="n">
-        <v>475.3891115244259</v>
-      </c>
-      <c r="E2" t="n">
-        <v>539.2766224906884</v>
+        <v>2936.590389374537</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2569.4067559005066</v>
       </c>
       <c r="C3" t="n">
-        <v>535.6011413713761</v>
+        <v>2053.8891449138387</v>
       </c>
       <c r="D3" t="n">
-        <v>495.0034700478306</v>
-      </c>
-      <c r="E3" t="n">
-        <v>576.1988126949217</v>
+        <v>3084.9243668871745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2548.7300361616153</v>
       </c>
       <c r="C4" t="n">
-        <v>536.3989998427566</v>
+        <v>1966.9296444600307</v>
       </c>
       <c r="D4" t="n">
-        <v>489.706053525907</v>
-      </c>
-      <c r="E4" t="n">
-        <v>583.0919461596061</v>
+        <v>3130.5304278632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2553.096400393809</v>
       </c>
       <c r="C5" t="n">
-        <v>531.1201028467113</v>
+        <v>1912.0075267949944</v>
       </c>
       <c r="D5" t="n">
-        <v>479.82511657132136</v>
-      </c>
-      <c r="E5" t="n">
-        <v>582.4150891221013</v>
+        <v>3194.1852739926235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2552.0070658439718</v>
       </c>
       <c r="C6" t="n">
-        <v>502.92331191508157</v>
+        <v>1856.658758706548</v>
       </c>
       <c r="D6" t="n">
-        <v>448.0291346753702</v>
-      </c>
-      <c r="E6" t="n">
-        <v>557.817489154793</v>
+        <v>3247.3553729813952</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2634.569882681216</v>
       </c>
       <c r="C7" t="n">
-        <v>532.4458718181655</v>
+        <v>1888.90034536231</v>
       </c>
       <c r="D7" t="n">
-        <v>474.6765223984119</v>
-      </c>
-      <c r="E7" t="n">
-        <v>590.2152212379192</v>
+        <v>3380.2394200001213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2613.648174460737</v>
       </c>
       <c r="C8" t="n">
-        <v>534.3984523691521</v>
+        <v>1820.8449988550078</v>
       </c>
       <c r="D8" t="n">
-        <v>474.2998662094227</v>
-      </c>
-      <c r="E8" t="n">
-        <v>594.4970385288815</v>
+        <v>3406.4513500664666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2618.026343647867</v>
       </c>
       <c r="C9" t="n">
-        <v>530.1826172034389</v>
+        <v>1780.7386449585847</v>
       </c>
       <c r="D9" t="n">
-        <v>468.17836991063683</v>
-      </c>
-      <c r="E9" t="n">
-        <v>592.186864496241</v>
+        <v>3455.3140423371497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2616.936440267365</v>
       </c>
       <c r="C10" t="n">
-        <v>502.96450371728946</v>
+        <v>1737.4112811263792</v>
       </c>
       <c r="D10" t="n">
-        <v>439.38983290482406</v>
-      </c>
-      <c r="E10" t="n">
-        <v>566.539174529755</v>
+        <v>3496.461599408351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2699.4992845141437</v>
       </c>
       <c r="C11" t="n">
-        <v>533.3880549973217</v>
+        <v>1779.6741268104195</v>
       </c>
       <c r="D11" t="n">
-        <v>468.5121377849564</v>
-      </c>
-      <c r="E11" t="n">
-        <v>598.2639722096869</v>
+        <v>3619.3244422178677</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2678.5775749729164</v>
       </c>
       <c r="C12" t="n">
-        <v>536.1701074699145</v>
+        <v>1720.1454511751363</v>
       </c>
       <c r="D12" t="n">
-        <v>470.2114229595366</v>
-      </c>
-      <c r="E12" t="n">
-        <v>602.1287919802924</v>
+        <v>3637.0096987706966</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2682.9557442236874</v>
       </c>
       <c r="C13" t="n">
-        <v>532.7179018863881</v>
+        <v>1687.4127008999146</v>
       </c>
       <c r="D13" t="n">
-        <v>465.85525154194767</v>
-      </c>
-      <c r="E13" t="n">
-        <v>599.5805522308284</v>
+        <v>3678.4987875474603</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2681.8658408401184</v>
       </c>
       <c r="C14" t="n">
-        <v>506.20280211728135</v>
+        <v>1650.5464110351738</v>
       </c>
       <c r="D14" t="n">
-        <v>438.5834620452507</v>
-      </c>
-      <c r="E14" t="n">
-        <v>573.822142189312</v>
+        <v>3713.185270645063</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2764.4286850870453</v>
       </c>
       <c r="C15" t="n">
-        <v>537.2735628531532</v>
+        <v>1698.5330140779017</v>
       </c>
       <c r="D15" t="n">
-        <v>469.01946284893575</v>
-      </c>
-      <c r="E15" t="n">
-        <v>605.5276628573706</v>
+        <v>3830.3243560961887</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2743.5069755458107</v>
       </c>
       <c r="C16" t="n">
-        <v>540.6514501858255</v>
+        <v>1644.1219671620922</v>
       </c>
       <c r="D16" t="n">
-        <v>471.86394925922923</v>
-      </c>
-      <c r="E16" t="n">
-        <v>609.4389511124218</v>
+        <v>3842.8919839295295</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2747.8851447965826</v>
       </c>
       <c r="C17" t="n">
-        <v>537.7477829113162</v>
+        <v>1616.0012232561692</v>
       </c>
       <c r="D17" t="n">
-        <v>468.51141867196515</v>
-      </c>
-      <c r="E17" t="n">
-        <v>606.9841471506674</v>
+        <v>3879.7690663369963</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2746.7952414130136</v>
       </c>
       <c r="C18" t="n">
-        <v>511.73767923528663</v>
+        <v>1583.3198325518974</v>
       </c>
       <c r="D18" t="n">
-        <v>442.12314965302227</v>
-      </c>
-      <c r="E18" t="n">
-        <v>581.3522088175511</v>
+        <v>3910.27065027413</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2829.35808565994</v>
       </c>
       <c r="C19" t="n">
-        <v>543.2733501694636</v>
+        <v>1635.1265996374946</v>
       </c>
       <c r="D19" t="n">
-        <v>473.33990995968054</v>
-      </c>
-      <c r="E19" t="n">
-        <v>613.2067903792466</v>
+        <v>4023.5895716823857</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2808.4363761187055</v>
       </c>
       <c r="C20" t="n">
-        <v>547.0792437688203</v>
+        <v>1584.2212571995615</v>
       </c>
       <c r="D20" t="n">
-        <v>476.8766471081404</v>
-      </c>
-      <c r="E20" t="n">
-        <v>617.2818404295002</v>
+        <v>4032.6514950378496</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2812.814545369477</v>
       </c>
       <c r="C21" t="n">
-        <v>544.5696082126707</v>
+        <v>1559.3328053456942</v>
       </c>
       <c r="D21" t="n">
-        <v>474.1396950280669</v>
-      </c>
-      <c r="E21" t="n">
-        <v>614.9995213972744</v>
+        <v>4066.29628539326</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2811.724641985908</v>
       </c>
       <c r="C22" t="n">
-        <v>518.922258559558</v>
+        <v>1529.6441890673373</v>
       </c>
       <c r="D22" t="n">
-        <v>448.3002575410488</v>
-      </c>
-      <c r="E22" t="n">
-        <v>589.5442595780672</v>
+        <v>4093.8050949044787</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2894.287486232835</v>
       </c>
       <c r="C23" t="n">
-        <v>550.7918886016217</v>
+        <v>1584.232486265763</v>
       </c>
       <c r="D23" t="n">
-        <v>480.0074928659399</v>
-      </c>
-      <c r="E23" t="n">
-        <v>621.5762843373036</v>
+        <v>4204.3424861999065</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2873.3657766916003</v>
       </c>
       <c r="C24" t="n">
-        <v>554.9052320945557</v>
+        <v>1535.9212290106282</v>
       </c>
       <c r="D24" t="n">
-        <v>483.983490868648</v>
-      </c>
-      <c r="E24" t="n">
-        <v>625.8269733204634</v>
+        <v>4210.810324372573</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2877.743945942372</v>
       </c>
       <c r="C25" t="n">
-        <v>552.6786414826172</v>
+        <v>1513.4596158614333</v>
       </c>
       <c r="D25" t="n">
-        <v>481.6407018540346</v>
-      </c>
-      <c r="E25" t="n">
-        <v>623.7165811111997</v>
+        <v>4242.028276023311</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2876.654042558803</v>
       </c>
       <c r="C26" t="n">
-        <v>527.2918690556386</v>
+        <v>1486.0478623311901</v>
       </c>
       <c r="D26" t="n">
-        <v>456.1555948064793</v>
-      </c>
-      <c r="E26" t="n">
-        <v>598.4281433047978</v>
+        <v>4267.260222786417</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2959.21688680573</v>
       </c>
       <c r="C27" t="n">
-        <v>559.4013920622943</v>
+        <v>1542.777914004547</v>
       </c>
       <c r="D27" t="n">
-        <v>488.18188122488056</v>
-      </c>
-      <c r="E27" t="n">
-        <v>630.6209028997081</v>
+        <v>4375.655859606913</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2938.295177264495</v>
       </c>
       <c r="C28" t="n">
-        <v>563.7355861464893</v>
+        <v>1496.4861819905352</v>
       </c>
       <c r="D28" t="n">
-        <v>492.4456047513652</v>
-      </c>
-      <c r="E28" t="n">
-        <v>635.0255675416133</v>
+        <v>4380.104172538455</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2942.673346515267</v>
       </c>
       <c r="C29" t="n">
-        <v>561.712315309865</v>
+        <v>1475.9330852434418</v>
       </c>
       <c r="D29" t="n">
-        <v>490.3626615303885</v>
-      </c>
-      <c r="E29" t="n">
-        <v>633.0619690893415</v>
+        <v>4409.413607787093</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2941.583443131698</v>
       </c>
       <c r="C30" t="n">
-        <v>536.5127234142933</v>
+        <v>1450.32866636866</v>
       </c>
       <c r="D30" t="n">
-        <v>465.11253372605864</v>
-      </c>
-      <c r="E30" t="n">
-        <v>607.9129131025279</v>
+        <v>4432.8382198947365</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3024.1462873786245</v>
       </c>
       <c r="C31" t="n">
-        <v>568.7945688194156</v>
+        <v>1508.7735199047543</v>
       </c>
       <c r="D31" t="n">
-        <v>497.35157572684534</v>
-      </c>
-      <c r="E31" t="n">
-        <v>640.237561911986</v>
+        <v>4539.519054852494</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3003.22457783739</v>
       </c>
       <c r="C32" t="n">
-        <v>573.2874065872782</v>
+        <v>1464.1117036191758</v>
       </c>
       <c r="D32" t="n">
-        <v>501.8081558061901</v>
-      </c>
-      <c r="E32" t="n">
-        <v>644.7666573683663</v>
+        <v>4542.3374520556035</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3007.602747088162</v>
       </c>
       <c r="C33" t="n">
-        <v>571.4101865170753</v>
+        <v>1445.1104255815608</v>
       </c>
       <c r="D33" t="n">
-        <v>499.90022015312974</v>
-      </c>
-      <c r="E33" t="n">
-        <v>642.920152881021</v>
+        <v>4570.095068594763</v>
       </c>
     </row>
   </sheetData>
